--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>3号</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
   </si>
 </sst>
 </file>
@@ -673,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,9 +693,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1009,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.945652173913" defaultRowHeight="26" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.945652173913" defaultRowHeight="26" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" width="10.7880434782609" style="1"/>
   </cols>
@@ -1044,7 +1050,7 @@
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>20</v>
       </c>
     </row>
@@ -1052,8 +1058,32 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
